--- a/respuesta_APIs.xlsx
+++ b/respuesta_APIs.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\reloj\yourclock-utilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erneydavidgarciavergara/Documents/GitHub/your-clock/yourclock-utilities/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58B4F3B-C5F6-9044-8E64-2EE68A2B4BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="api_usuarios" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>Descripcion</t>
   </si>
@@ -33,59 +33,137 @@
     <t>Codigo</t>
   </si>
   <si>
-    <t>Faltaron datos por completar</t>
-  </si>
-  <si>
-    <t>Error al enviar correo</t>
-  </si>
-  <si>
-    <t>Usuario guardado en BD</t>
-  </si>
-  <si>
-    <t>Error para consultar o guardar en BD</t>
-  </si>
-  <si>
-    <t>Usuario ya existente</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>API</t>
-  </si>
-  <si>
-    <t>Correo incorrecto</t>
-  </si>
-  <si>
-    <t>Verificacion no realizada</t>
-  </si>
-  <si>
     <t>Contraseña incorrecta</t>
   </si>
   <si>
-    <t>Error al generar el token</t>
-  </si>
-  <si>
-    <t>Sin codigo</t>
-  </si>
-  <si>
-    <t>Auth</t>
-  </si>
-  <si>
-    <t>Envio de token correctamente</t>
-  </si>
-  <si>
-    <t>Inicio</t>
-  </si>
-  <si>
     <t>Mensaje</t>
+  </si>
+  <si>
+    <t>Status code</t>
+  </si>
+  <si>
+    <t>tipo y/o longitud del dato no es la correcta</t>
+  </si>
+  <si>
+    <t>Por favor revise su {dato}</t>
+  </si>
+  <si>
+    <t>Correo no existe en base de datos</t>
+  </si>
+  <si>
+    <t>Correo no existente, verifique la informacion</t>
+  </si>
+  <si>
+    <t>Por favor verifique su cuenta para continuar</t>
+  </si>
+  <si>
+    <t>La cuenta no ha sido verificada</t>
+  </si>
+  <si>
+    <t>Contrasena incorrecta, intentelo de nuevo</t>
+  </si>
+  <si>
+    <t>API path</t>
+  </si>
+  <si>
+    <t>/login</t>
+  </si>
+  <si>
+    <t>/auth</t>
+  </si>
+  <si>
+    <t>Usuario autenticado</t>
+  </si>
+  <si>
+    <t>Usuario autenticado exitosamente</t>
+  </si>
+  <si>
+    <t>Usuario ya existente, verifique la informacion</t>
+  </si>
+  <si>
+    <t>Correo ya existe en base de datos</t>
+  </si>
+  <si>
+    <t>Error al generar plantilla de correo</t>
+  </si>
+  <si>
+    <t>No es posible generar la plantilla del correo</t>
+  </si>
+  <si>
+    <t>Error al crear el usuario en base de datos</t>
+  </si>
+  <si>
+    <t>No es posible crear al usuario en base de datos</t>
+  </si>
+  <si>
+    <t>Usuario creado y registrado exitosamente</t>
+  </si>
+  <si>
+    <t>Usuario registrado correctamente, verifique su correo para autenticar su cuenta</t>
+  </si>
+  <si>
+    <t>/deleteaccount</t>
+  </si>
+  <si>
+    <t>Usuario no existe en base de datos</t>
+  </si>
+  <si>
+    <t>Su cuenta ha sido eliminada correctamente.</t>
+  </si>
+  <si>
+    <t>Usuario eliminado en base de datos</t>
+  </si>
+  <si>
+    <t>/verify</t>
+  </si>
+  <si>
+    <t>verificacion ya realizada</t>
+  </si>
+  <si>
+    <t>No es posible actualizar el estado en base de datos</t>
+  </si>
+  <si>
+    <t>Actualizacion no realizada en base de datos</t>
+  </si>
+  <si>
+    <t>La verificacion ya fue realizada previamente</t>
+  </si>
+  <si>
+    <t>Actualizacion realiza en base de datos</t>
+  </si>
+  <si>
+    <t>Estado actualizado correctamente</t>
+  </si>
+  <si>
+    <t>/forgotpassword</t>
+  </si>
+  <si>
+    <t>Mensaje enviado exitosamente, verifique su correo para cambiar su contraseña</t>
+  </si>
+  <si>
+    <t>Correo enviado para cambio de contraseña</t>
+  </si>
+  <si>
+    <t>/recoverypassword</t>
+  </si>
+  <si>
+    <t>No fue posible actualizar la contraseña</t>
+  </si>
+  <si>
+    <t>No es posible actualizar la contraseña del usuario en base de datos</t>
+  </si>
+  <si>
+    <t>Contraseña reestablecida correctamente</t>
+  </si>
+  <si>
+    <t>Contraseña actualizada en base de datos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,34 +171,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -166,48 +234,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -215,12 +249,8 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -228,58 +258,8 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -288,32 +268,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -324,15 +282,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,195 +595,389 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E2:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="E2:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="33.7109375" customWidth="1"/>
-    <col min="8" max="8" width="45.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="55.6640625" customWidth="1"/>
+    <col min="9" max="9" width="63.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="13" t="s">
+    <row r="2" spans="5:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="5:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="4">
+        <v>400</v>
+      </c>
+      <c r="G4" s="4">
+        <v>309</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="5:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="9"/>
+      <c r="F5" s="5">
+        <v>200</v>
+      </c>
+      <c r="G5" s="5">
+        <v>310</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="4">
+        <v>400</v>
+      </c>
+      <c r="G6" s="4">
+        <v>301</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E7" s="8"/>
+      <c r="F7" s="5">
+        <v>400</v>
+      </c>
+      <c r="G7" s="5">
+        <v>302</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="10" t="s">
+    </row>
+    <row r="8" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E8" s="8"/>
+      <c r="F8" s="5">
+        <v>400</v>
+      </c>
+      <c r="G8" s="5">
+        <v>304</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E9" s="8"/>
+      <c r="F9" s="5">
+        <v>400</v>
+      </c>
+      <c r="G9" s="5">
+        <v>303</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="5:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="9"/>
+      <c r="F10" s="5">
+        <v>200</v>
+      </c>
+      <c r="G10" s="5">
+        <v>300</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="4">
+        <v>400</v>
+      </c>
+      <c r="G11" s="4">
+        <v>301</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E12" s="8"/>
+      <c r="F12" s="5">
+        <v>400</v>
+      </c>
+      <c r="G12" s="5">
+        <v>305</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E4" s="18" t="s">
+    <row r="13" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E13" s="8"/>
+      <c r="F13" s="5">
+        <v>500</v>
+      </c>
+      <c r="G13" s="5">
+        <v>306</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E14" s="8"/>
+      <c r="F14" s="5">
+        <v>201</v>
+      </c>
+      <c r="G14" s="5">
+        <v>308</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="9"/>
+      <c r="F15" s="6">
+        <v>500</v>
+      </c>
+      <c r="G15" s="6">
+        <v>307</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="4">
+        <v>400</v>
+      </c>
+      <c r="G16" s="4">
+        <v>302</v>
+      </c>
+      <c r="H16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5">
-        <v>305</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="17"/>
-    </row>
-    <row r="5" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E5" s="19"/>
-      <c r="F5" s="6">
-        <v>304</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="I16" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E17" s="8"/>
+      <c r="F17" s="15">
+        <v>400</v>
+      </c>
+      <c r="G17" s="15">
+        <v>311</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E18" s="8"/>
+      <c r="F18" s="15">
+        <v>500</v>
+      </c>
+      <c r="G18" s="15">
+        <v>312</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="9"/>
+      <c r="F19" s="18">
+        <v>200</v>
+      </c>
+      <c r="G19" s="18">
+        <v>313</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="4">
+        <v>400</v>
+      </c>
+      <c r="G20" s="4">
+        <v>301</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E6" s="19"/>
-      <c r="F6" s="7">
-        <v>402</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E7" s="19"/>
-      <c r="F7" s="7">
-        <v>400</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="20"/>
-      <c r="F8" s="8">
-        <v>300</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="9" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="5">
-        <v>305</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="17"/>
-    </row>
-    <row r="10" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E10" s="19"/>
-      <c r="F10" s="6">
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E21" s="8"/>
+      <c r="F21" s="5">
+        <v>400</v>
+      </c>
+      <c r="G21" s="5">
+        <v>302</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E22" s="8"/>
+      <c r="F22" s="5">
+        <v>500</v>
+      </c>
+      <c r="G22" s="5">
         <v>306</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E11" s="19"/>
-      <c r="F11" s="6">
-        <v>307</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E12" s="19"/>
-      <c r="F12" s="6">
-        <v>308</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E13" s="19"/>
-      <c r="F13" s="7">
-        <v>400</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E14" s="19"/>
-      <c r="F14" s="7">
-        <v>401</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="20"/>
-      <c r="F15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="12"/>
-    </row>
-    <row r="16" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E16" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="15">
-        <v>305</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E17" s="22"/>
-      <c r="F17" s="7">
-        <v>401</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="23"/>
-      <c r="F18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="12"/>
+      <c r="H22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="9"/>
+      <c r="F23" s="18">
+        <v>200</v>
+      </c>
+      <c r="G23" s="18">
+        <v>314</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="21">
+        <v>500</v>
+      </c>
+      <c r="G24" s="21">
+        <v>315</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="9"/>
+      <c r="F25" s="18">
+        <v>200</v>
+      </c>
+      <c r="G25" s="18">
+        <v>316</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="E9:E15"/>
-    <mergeCell ref="E16:E18"/>
+  <mergeCells count="6">
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E6:E10"/>
+    <mergeCell ref="E11:E15"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E16:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
